--- a/PainelEXE/dados/Status_dos_pedidos.xlsx
+++ b/PainelEXE/dados/Status_dos_pedidos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfsan\OneDrive\Documentos\PainelPrioridades\PainelEXE\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1652DF-F33E-48B9-A849-3EBD6DFD719B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD999840-C449-4D9B-81FA-CA6308E0967A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5952" yWindow="864" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status_dos_pedidos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
   <si>
     <t>Pedido</t>
   </si>
@@ -52,9 +52,6 @@
     <t>CV-0000122964</t>
   </si>
   <si>
-    <t>CV-0000123059</t>
-  </si>
-  <si>
     <t>CV-0000123064</t>
   </si>
   <si>
@@ -203,6 +200,12 @@
   </si>
   <si>
     <t>Aguardando Montagem</t>
+  </si>
+  <si>
+    <t>Aguardando Chegada</t>
+  </si>
+  <si>
+    <t>Concluído</t>
   </si>
 </sst>
 </file>
@@ -494,9 +497,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -507,7 +512,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -521,10 +526,10 @@
         <v>45832</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -535,26 +540,26 @@
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>59</v>
@@ -562,24 +567,24 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>45848</v>
+        <v>45811</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45811</v>
+        <v>45848</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -587,10 +592,10 @@
         <v>45848</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -598,10 +603,10 @@
         <v>45848</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -609,21 +614,21 @@
         <v>45848</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -639,10 +644,10 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -650,13 +655,13 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -664,7 +669,7 @@
         <v>45854</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>4</v>
@@ -672,68 +677,68 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>45855</v>
+        <v>45857</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>45857</v>
+        <v>45858</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>45858</v>
+        <v>45859</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -744,7 +749,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -755,7 +760,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -766,7 +771,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -777,18 +782,18 @@
         <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>45863</v>
+        <v>45865</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -796,10 +801,10 @@
         <v>45865</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -807,43 +812,43 @@
         <v>45865</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>45865</v>
+        <v>45868</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>45868</v>
+        <v>45871</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>45871</v>
+        <v>45876</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -851,10 +856,10 @@
         <v>45876</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -862,10 +867,10 @@
         <v>45876</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -873,10 +878,10 @@
         <v>45876</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -887,18 +892,18 @@
         <v>23</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -906,10 +911,10 @@
         <v>45877</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -917,43 +922,43 @@
         <v>45877</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>45879</v>
+        <v>45880</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>45880</v>
+        <v>45883</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -964,18 +969,18 @@
         <v>41</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>45883</v>
+        <v>45884</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -983,10 +988,10 @@
         <v>45884</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -994,10 +999,10 @@
         <v>45884</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1008,7 +1013,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1019,7 +1024,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1030,7 +1035,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1041,7 +1046,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1052,7 +1057,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1063,7 +1068,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1074,7 +1079,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1085,29 +1090,18 @@
         <v>51</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>45884</v>
+        <v>45885</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>45885</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/PainelEXE/dados/Status_dos_pedidos.xlsx
+++ b/PainelEXE/dados/Status_dos_pedidos.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr/>
+  <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lfsan\OneDrive\Documentos\PainelPrioridades\PainelEXE\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PainelPrioridades\PainelEXE\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD999840-C449-4D9B-81FA-CA6308E0967A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7D10DF-109F-4A25-963D-3911DF04F3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Status_dos_pedidos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
   <si>
     <t>Pedido</t>
   </si>
@@ -205,14 +205,92 @@
     <t>Aguardando Chegada</t>
   </si>
   <si>
-    <t>Concluído</t>
+    <t>Data Status</t>
+  </si>
+  <si>
+    <t>TERAVIX</t>
+  </si>
+  <si>
+    <t>121318 -121319</t>
+  </si>
+  <si>
+    <t>121722 -121723</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>121724 -121725</t>
+  </si>
+  <si>
+    <t>121585 -121592</t>
+  </si>
+  <si>
+    <t>121269 - 121270</t>
+  </si>
+  <si>
+    <t>121273 - 121274</t>
+  </si>
+  <si>
+    <t>121265 -121266</t>
+  </si>
+  <si>
+    <t>121267 - 121268</t>
+  </si>
+  <si>
+    <t>121271 - 121272</t>
+  </si>
+  <si>
+    <t>121407 - 121408</t>
+  </si>
+  <si>
+    <t>121372 - 121373</t>
+  </si>
+  <si>
+    <t>121410 - 121411</t>
+  </si>
+  <si>
+    <t>121614 - 121618</t>
+  </si>
+  <si>
+    <t>121606 - 121607</t>
+  </si>
+  <si>
+    <t>121576 - 121579</t>
+  </si>
+  <si>
+    <t>121652 -121653</t>
+  </si>
+  <si>
+    <t>121654 -121655</t>
+  </si>
+  <si>
+    <t>121656 -121657</t>
+  </si>
+  <si>
+    <t>121659 - 121660</t>
+  </si>
+  <si>
+    <t>121608- 121609</t>
+  </si>
+  <si>
+    <t>121581 - 121583</t>
+  </si>
+  <si>
+    <t>121567 -121569 I24487 SEM SALDO</t>
+  </si>
+  <si>
+    <t>121571 -121572 I24487 SEM SALDO</t>
+  </si>
+  <si>
+    <t>Pv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -226,16 +304,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF56585B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9E8E5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -258,11 +361,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD5D3D1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD5D3D1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD5D3D1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD5D3D1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFD5D3D1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -279,6 +417,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,619 +648,917 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Planilha1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45832</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="8">
+        <v>121564</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45846</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45847</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45848</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45811</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45848</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45848</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45848</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8">
+        <v>120979</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45848</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45849</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45849</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45852</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45854</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45854</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45855</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45857</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45858</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="8">
+        <v>121721</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45859</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45861</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45863</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45863</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45863</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="8">
+        <v>121720</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45863</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45863</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45865</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45865</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45865</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45868</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45871</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45876</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45876</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45876</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45876</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45876</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45877</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45877</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45877</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45879</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45880</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45883</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45883</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45884</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45884</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45884</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45884</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45884</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45884</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45884</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45884</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45884</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45884</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45884</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45885</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="C54" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="5"/>
+      <c r="D58"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="5"/>
+      <c r="D59"/>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="5"/>
+      <c r="D60"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="5"/>
+      <c r="D61"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="5"/>
+      <c r="D62"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="5"/>
+      <c r="D63"/>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="5"/>
+      <c r="D64"/>
+    </row>
+    <row r="65" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="5"/>
+      <c r="D65"/>
+    </row>
+    <row r="66" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="5"/>
+      <c r="D66"/>
+    </row>
+    <row r="67" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="5"/>
+      <c r="D67"/>
+    </row>
+    <row r="68" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="5"/>
+      <c r="D68"/>
+    </row>
+    <row r="69" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="5"/>
+      <c r="D69"/>
+    </row>
+    <row r="70" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="5"/>
+      <c r="D70"/>
+    </row>
+    <row r="71" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="5"/>
+      <c r="D71"/>
+    </row>
+    <row r="72" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="5"/>
+      <c r="D72"/>
+    </row>
+    <row r="73" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="5"/>
+      <c r="D73"/>
+    </row>
+    <row r="74" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="5"/>
+      <c r="D74"/>
+    </row>
+    <row r="75" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="5"/>
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="5"/>
+      <c r="D76"/>
+    </row>
+    <row r="77" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="5"/>
+      <c r="D77"/>
+    </row>
+    <row r="78" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="5"/>
+      <c r="D78"/>
+    </row>
+    <row r="79" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="5"/>
+      <c r="D79"/>
+    </row>
+    <row r="80" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="5"/>
+      <c r="D80"/>
+    </row>
+    <row r="81" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="5"/>
+      <c r="D81"/>
+    </row>
+    <row r="82" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="5"/>
+      <c r="D82"/>
+    </row>
+    <row r="83" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="5"/>
+      <c r="D83"/>
+    </row>
+    <row r="84" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="5"/>
+      <c r="D84"/>
+    </row>
+    <row r="85" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="5"/>
+      <c r="D85"/>
+    </row>
+    <row r="86" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="5"/>
+      <c r="D86"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{BE7E53B5-1E7A-45C1-B95D-FA644E60A43B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D57 D87:D1048576 C58:C86" xr:uid="{BE7E53B5-1E7A-45C1-B95D-FA644E60A43B}">
       <formula1>"Aguardando Chegada,Aguardando Montagem,Em Montagem,Concluído,Pendente,Cancelado"</formula1>
     </dataValidation>
   </dataValidations>
